--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0534464742145058</v>
+        <v>0.07609233333333333</v>
       </c>
       <c r="H2">
-        <v>0.0534464742145058</v>
+        <v>0.228277</v>
       </c>
       <c r="I2">
-        <v>0.01428989462806727</v>
+        <v>0.01471694079596306</v>
       </c>
       <c r="J2">
-        <v>0.01428989462806727</v>
+        <v>0.01551578426224222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N2">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O2">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P2">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q2">
-        <v>0.01548804717211826</v>
+        <v>0.02722073868033334</v>
       </c>
       <c r="R2">
-        <v>0.01548804717211826</v>
+        <v>0.244986648123</v>
       </c>
       <c r="S2">
-        <v>0.000441373834972974</v>
+        <v>0.0005303129420065094</v>
       </c>
       <c r="T2">
-        <v>0.000441373834972974</v>
+        <v>0.00070679626416404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0534464742145058</v>
+        <v>0.07609233333333333</v>
       </c>
       <c r="H3">
-        <v>0.0534464742145058</v>
+        <v>0.228277</v>
       </c>
       <c r="I3">
-        <v>0.01428989462806727</v>
+        <v>0.01471694079596306</v>
       </c>
       <c r="J3">
-        <v>0.01428989462806727</v>
+        <v>0.01551578426224222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N3">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P3">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q3">
-        <v>0.1238667704737584</v>
+        <v>0.1954980461031111</v>
       </c>
       <c r="R3">
-        <v>0.1238667704737584</v>
+        <v>1.759482414928</v>
       </c>
       <c r="S3">
-        <v>0.003529918969264258</v>
+        <v>0.003808682240514256</v>
       </c>
       <c r="T3">
-        <v>0.003529918969264258</v>
+        <v>0.005076177037652533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0534464742145058</v>
+        <v>0.07609233333333333</v>
       </c>
       <c r="H4">
-        <v>0.0534464742145058</v>
+        <v>0.228277</v>
       </c>
       <c r="I4">
-        <v>0.01428989462806727</v>
+        <v>0.01471694079596306</v>
       </c>
       <c r="J4">
-        <v>0.01428989462806727</v>
+        <v>0.01551578426224222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N4">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O4">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P4">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q4">
-        <v>0.01824961645237639</v>
+        <v>0.04012102704788888</v>
       </c>
       <c r="R4">
-        <v>0.01824961645237639</v>
+        <v>0.361089243431</v>
       </c>
       <c r="S4">
-        <v>0.0005200722280128231</v>
+        <v>0.0007816356543425053</v>
       </c>
       <c r="T4">
-        <v>0.0005200722280128231</v>
+        <v>0.00104175688855792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0534464742145058</v>
+        <v>0.07609233333333333</v>
       </c>
       <c r="H5">
-        <v>0.0534464742145058</v>
+        <v>0.228277</v>
       </c>
       <c r="I5">
-        <v>0.01428989462806727</v>
+        <v>0.01471694079596306</v>
       </c>
       <c r="J5">
-        <v>0.01428989462806727</v>
+        <v>0.01551578426224222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N5">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O5">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P5">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q5">
-        <v>0.01296586059444748</v>
+        <v>0.01900274131622222</v>
       </c>
       <c r="R5">
-        <v>0.01296586059444748</v>
+        <v>0.171024671846</v>
       </c>
       <c r="S5">
-        <v>0.0003694973001243485</v>
+        <v>0.0003702103668801339</v>
       </c>
       <c r="T5">
-        <v>0.0003694973001243485</v>
+        <v>0.000493413008695657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0534464742145058</v>
+        <v>0.07609233333333333</v>
       </c>
       <c r="H6">
-        <v>0.0534464742145058</v>
+        <v>0.228277</v>
       </c>
       <c r="I6">
-        <v>0.01428989462806727</v>
+        <v>0.01471694079596306</v>
       </c>
       <c r="J6">
-        <v>0.01428989462806727</v>
+        <v>0.01551578426224222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N6">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O6">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P6">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q6">
-        <v>0.3308698554640416</v>
+        <v>0.4735717840268333</v>
       </c>
       <c r="R6">
-        <v>0.3308698554640416</v>
+        <v>2.841430704161</v>
       </c>
       <c r="S6">
-        <v>0.00942903229569287</v>
+        <v>0.009226099592219658</v>
       </c>
       <c r="T6">
-        <v>0.00942903229569287</v>
+        <v>0.008197641063172074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.05754676699365</v>
+        <v>4.276619</v>
       </c>
       <c r="H7">
-        <v>3.05754676699365</v>
+        <v>12.829857</v>
       </c>
       <c r="I7">
-        <v>0.8174911771611055</v>
+        <v>0.8271365310113251</v>
       </c>
       <c r="J7">
-        <v>0.8174911771611055</v>
+        <v>0.8720339470354798</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N7">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O7">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P7">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q7">
-        <v>0.8860346590515166</v>
+        <v>1.529887744727</v>
       </c>
       <c r="R7">
-        <v>0.8860346590515166</v>
+        <v>13.768989702543</v>
       </c>
       <c r="S7">
-        <v>0.02524995637206943</v>
+        <v>0.02980518935851097</v>
       </c>
       <c r="T7">
-        <v>0.02524995637206943</v>
+        <v>0.03972408520069415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.05754676699365</v>
+        <v>4.276619</v>
       </c>
       <c r="H8">
-        <v>3.05754676699365</v>
+        <v>12.829857</v>
       </c>
       <c r="I8">
-        <v>0.8174911771611055</v>
+        <v>0.8271365310113251</v>
       </c>
       <c r="J8">
-        <v>0.8174911771611055</v>
+        <v>0.8720339470354798</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N8">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P8">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q8">
-        <v>7.086125870155051</v>
+        <v>10.98758076933867</v>
       </c>
       <c r="R8">
-        <v>7.086125870155051</v>
+        <v>98.888226924048</v>
       </c>
       <c r="S8">
-        <v>0.2019383409447467</v>
+        <v>0.2140594475318912</v>
       </c>
       <c r="T8">
-        <v>0.2019383409447467</v>
+        <v>0.2852964840950495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.05754676699365</v>
+        <v>4.276619</v>
       </c>
       <c r="H9">
-        <v>3.05754676699365</v>
+        <v>12.829857</v>
       </c>
       <c r="I9">
-        <v>0.8174911771611055</v>
+        <v>0.8271365310113251</v>
       </c>
       <c r="J9">
-        <v>0.8174911771611055</v>
+        <v>0.8720339470354798</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N9">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O9">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P9">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q9">
-        <v>1.044017525999746</v>
+        <v>2.254922921352333</v>
       </c>
       <c r="R9">
-        <v>1.044017525999746</v>
+        <v>20.294306292171</v>
       </c>
       <c r="S9">
-        <v>0.02975210587291114</v>
+        <v>0.04393028501038551</v>
       </c>
       <c r="T9">
-        <v>0.02975210587291114</v>
+        <v>0.05854988417126143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.05754676699365</v>
+        <v>4.276619</v>
       </c>
       <c r="H10">
-        <v>3.05754676699365</v>
+        <v>12.829857</v>
       </c>
       <c r="I10">
-        <v>0.8174911771611055</v>
+        <v>0.8271365310113251</v>
       </c>
       <c r="J10">
-        <v>0.8174911771611055</v>
+        <v>0.8720339470354798</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N10">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O10">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P10">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q10">
-        <v>0.7417463120716693</v>
+        <v>1.068011467187334</v>
       </c>
       <c r="R10">
-        <v>0.7417463120716693</v>
+        <v>9.612103204686001</v>
       </c>
       <c r="S10">
-        <v>0.02113806929291249</v>
+        <v>0.02080694098393467</v>
       </c>
       <c r="T10">
-        <v>0.02113806929291249</v>
+        <v>0.02773130163575409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.05754676699365</v>
+        <v>4.276619</v>
       </c>
       <c r="H11">
-        <v>3.05754676699365</v>
+        <v>12.829857</v>
       </c>
       <c r="I11">
-        <v>0.8174911771611055</v>
+        <v>0.8271365310113251</v>
       </c>
       <c r="J11">
-        <v>0.8174911771611055</v>
+        <v>0.8720339470354798</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N11">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O11">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P11">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q11">
-        <v>18.92828426454306</v>
+        <v>26.6161648711835</v>
       </c>
       <c r="R11">
-        <v>18.92828426454306</v>
+        <v>159.696989227101</v>
       </c>
       <c r="S11">
-        <v>0.5394127046784657</v>
+        <v>0.5185346681266029</v>
       </c>
       <c r="T11">
-        <v>0.5394127046784657</v>
+        <v>0.4607321919327206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.629165493729591</v>
+        <v>0.003415</v>
       </c>
       <c r="H12">
-        <v>0.629165493729591</v>
+        <v>0.010245</v>
       </c>
       <c r="I12">
-        <v>0.1682189282108272</v>
+        <v>0.0006604916765799514</v>
       </c>
       <c r="J12">
-        <v>0.1682189282108272</v>
+        <v>0.0006963435202261795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N12">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O12">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P12">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q12">
-        <v>0.1823234364692336</v>
+        <v>0.001221658195</v>
       </c>
       <c r="R12">
-        <v>0.1823234364692336</v>
+        <v>0.010994923755</v>
       </c>
       <c r="S12">
-        <v>0.005195799926587579</v>
+        <v>2.380027813076521E-05</v>
       </c>
       <c r="T12">
-        <v>0.005195799926587579</v>
+        <v>3.172079415079307E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.629165493729591</v>
+        <v>0.003415</v>
       </c>
       <c r="H13">
-        <v>0.629165493729591</v>
+        <v>0.010245</v>
       </c>
       <c r="I13">
-        <v>0.1682189282108272</v>
+        <v>0.0006604916765799514</v>
       </c>
       <c r="J13">
-        <v>0.1682189282108272</v>
+        <v>0.0006963435202261795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N13">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P13">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q13">
-        <v>1.458144787793328</v>
+        <v>0.008773890853333332</v>
       </c>
       <c r="R13">
-        <v>1.458144787793328</v>
+        <v>0.07896501768</v>
       </c>
       <c r="S13">
-        <v>0.0415537833648122</v>
+        <v>0.0001709324616762467</v>
       </c>
       <c r="T13">
-        <v>0.0415537833648122</v>
+        <v>0.0002278172297285763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.629165493729591</v>
+        <v>0.003415</v>
       </c>
       <c r="H14">
-        <v>0.629165493729591</v>
+        <v>0.010245</v>
       </c>
       <c r="I14">
-        <v>0.1682189282108272</v>
+        <v>0.0006604916765799514</v>
       </c>
       <c r="J14">
-        <v>0.1682189282108272</v>
+        <v>0.0006963435202261795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N14">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O14">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P14">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q14">
-        <v>0.214832299312248</v>
+        <v>0.001800619081666666</v>
       </c>
       <c r="R14">
-        <v>0.214832299312248</v>
+        <v>0.016205571735</v>
       </c>
       <c r="S14">
-        <v>0.006122227984571682</v>
+        <v>3.507956245587145E-05</v>
       </c>
       <c r="T14">
-        <v>0.006122227984571682</v>
+        <v>4.675372167706728E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.629165493729591</v>
+        <v>0.003415</v>
       </c>
       <c r="H15">
-        <v>0.629165493729591</v>
+        <v>0.010245</v>
       </c>
       <c r="I15">
-        <v>0.1682189282108272</v>
+        <v>0.0006604916765799514</v>
       </c>
       <c r="J15">
-        <v>0.1682189282108272</v>
+        <v>0.0006963435202261795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N15">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O15">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P15">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q15">
-        <v>0.1526325581327222</v>
+        <v>0.0008528370566666668</v>
       </c>
       <c r="R15">
-        <v>0.1526325581327222</v>
+        <v>0.007675533510000001</v>
       </c>
       <c r="S15">
-        <v>0.004349677966248165</v>
+        <v>1.661492488812702E-05</v>
       </c>
       <c r="T15">
-        <v>0.004349677966248165</v>
+        <v>2.214422072345005E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.003415</v>
+      </c>
+      <c r="H16">
+        <v>0.010245</v>
+      </c>
+      <c r="I16">
+        <v>0.0006604916765799514</v>
+      </c>
+      <c r="J16">
+        <v>0.0006963435202261795</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.2236465</v>
+      </c>
+      <c r="N16">
+        <v>12.447293</v>
+      </c>
+      <c r="O16">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P16">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q16">
+        <v>0.0212537527975</v>
+      </c>
+      <c r="R16">
+        <v>0.127522516785</v>
+      </c>
+      <c r="S16">
+        <v>0.0004140644494289411</v>
+      </c>
+      <c r="T16">
+        <v>0.0003679075539462929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01565833333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.046975</v>
+      </c>
+      <c r="I17">
+        <v>0.003028462323801192</v>
+      </c>
+      <c r="J17">
+        <v>0.003192848888494366</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.357733</v>
+      </c>
+      <c r="N17">
+        <v>1.073199</v>
+      </c>
+      <c r="O17">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P17">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q17">
+        <v>0.005601502558333334</v>
+      </c>
+      <c r="R17">
+        <v>0.050413523025</v>
+      </c>
+      <c r="S17">
+        <v>0.0001091281664414539</v>
+      </c>
+      <c r="T17">
+        <v>0.0001454450273531971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01565833333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.046975</v>
+      </c>
+      <c r="I18">
+        <v>0.003028462323801192</v>
+      </c>
+      <c r="J18">
+        <v>0.003192848888494366</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P18">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q18">
+        <v>0.04022972404444444</v>
+      </c>
+      <c r="R18">
+        <v>0.3620675164</v>
+      </c>
+      <c r="S18">
+        <v>0.0007837532832837177</v>
+      </c>
+      <c r="T18">
+        <v>0.00104457924514396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01565833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.046975</v>
+      </c>
+      <c r="I19">
+        <v>0.003028462323801192</v>
+      </c>
+      <c r="J19">
+        <v>0.003192848888494366</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.581803</v>
+      </c>
+      <c r="O19">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P19">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q19">
+        <v>0.008256132880555555</v>
+      </c>
+      <c r="R19">
+        <v>0.074305195925</v>
+      </c>
+      <c r="S19">
+        <v>0.0001608455291717483</v>
+      </c>
+      <c r="T19">
+        <v>0.0002143734578604427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01565833333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.046975</v>
+      </c>
+      <c r="I20">
+        <v>0.003028462323801192</v>
+      </c>
+      <c r="J20">
+        <v>0.003192848888494366</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.749198</v>
+      </c>
+      <c r="O20">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P20">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q20">
+        <v>0.00391039733888889</v>
+      </c>
+      <c r="R20">
+        <v>0.03519357605</v>
+      </c>
+      <c r="S20">
+        <v>7.618214705903044E-05</v>
+      </c>
+      <c r="T20">
+        <v>0.0001015348724728224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01565833333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.046975</v>
+      </c>
+      <c r="I21">
+        <v>0.003028462323801192</v>
+      </c>
+      <c r="J21">
+        <v>0.003192848888494366</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.2236465</v>
+      </c>
+      <c r="N21">
+        <v>12.447293</v>
+      </c>
+      <c r="O21">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P21">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q21">
+        <v>0.09745193144583333</v>
+      </c>
+      <c r="R21">
+        <v>0.5847115886750001</v>
+      </c>
+      <c r="S21">
+        <v>0.001898553197845243</v>
+      </c>
+      <c r="T21">
+        <v>0.001686916285663944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.798606</v>
+      </c>
+      <c r="H22">
+        <v>1.597212</v>
+      </c>
+      <c r="I22">
+        <v>0.1544575741923305</v>
+      </c>
+      <c r="J22">
+        <v>0.1085610762935575</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.357733</v>
+      </c>
+      <c r="N22">
+        <v>1.073199</v>
+      </c>
+      <c r="O22">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P22">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q22">
+        <v>0.285687720198</v>
+      </c>
+      <c r="R22">
+        <v>1.714126321188</v>
+      </c>
+      <c r="S22">
+        <v>0.005565752537891033</v>
+      </c>
+      <c r="T22">
+        <v>0.004945322895771254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.798606</v>
+      </c>
+      <c r="H23">
+        <v>1.597212</v>
+      </c>
+      <c r="I23">
+        <v>0.1544575741923305</v>
+      </c>
+      <c r="J23">
+        <v>0.1085610762935575</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P23">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q23">
+        <v>2.051795572128</v>
+      </c>
+      <c r="R23">
+        <v>12.310773432768</v>
+      </c>
+      <c r="S23">
+        <v>0.0399729691037835</v>
+      </c>
+      <c r="T23">
+        <v>0.03551707302383979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.629165493729591</v>
-      </c>
-      <c r="H16">
-        <v>0.629165493729591</v>
-      </c>
-      <c r="I16">
-        <v>0.1682189282108272</v>
-      </c>
-      <c r="J16">
-        <v>0.1682189282108272</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="N16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="O16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="P16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="Q16">
-        <v>3.894960313710883</v>
-      </c>
-      <c r="R16">
-        <v>3.894960313710883</v>
-      </c>
-      <c r="S16">
-        <v>0.1109974389686075</v>
-      </c>
-      <c r="T16">
-        <v>0.1109974389686075</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.798606</v>
+      </c>
+      <c r="H24">
+        <v>1.597212</v>
+      </c>
+      <c r="I24">
+        <v>0.1544575741923305</v>
+      </c>
+      <c r="J24">
+        <v>0.1085610762935575</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.581803</v>
+      </c>
+      <c r="O24">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P24">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q24">
+        <v>0.421079122206</v>
+      </c>
+      <c r="R24">
+        <v>2.526474733236</v>
+      </c>
+      <c r="S24">
+        <v>0.008203440425954224</v>
+      </c>
+      <c r="T24">
+        <v>0.007288980508274473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.798606</v>
+      </c>
+      <c r="H25">
+        <v>1.597212</v>
+      </c>
+      <c r="I25">
+        <v>0.1544575741923305</v>
+      </c>
+      <c r="J25">
+        <v>0.1085610762935575</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.749198</v>
+      </c>
+      <c r="O25">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P25">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q25">
+        <v>0.199438005996</v>
+      </c>
+      <c r="R25">
+        <v>1.196628035976</v>
+      </c>
+      <c r="S25">
+        <v>0.003885440323633256</v>
+      </c>
+      <c r="T25">
+        <v>0.003452319674977364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.798606</v>
+      </c>
+      <c r="H26">
+        <v>1.597212</v>
+      </c>
+      <c r="I26">
+        <v>0.1544575741923305</v>
+      </c>
+      <c r="J26">
+        <v>0.1085610762935575</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2236465</v>
+      </c>
+      <c r="N26">
+        <v>12.447293</v>
+      </c>
+      <c r="O26">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P26">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q26">
+        <v>4.970241436779</v>
+      </c>
+      <c r="R26">
+        <v>19.880965747116</v>
+      </c>
+      <c r="S26">
+        <v>0.09682997180106852</v>
+      </c>
+      <c r="T26">
+        <v>0.05735738019069461</v>
       </c>
     </row>
   </sheetData>
